--- a/strony.xlsx
+++ b/strony.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Badania analizy\Analizy 2022_2023\TBR 1-9.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{AA3335E7-B933-4D0E-A2A8-2A4AE2844D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456B254-4E06-4DFF-AEF3-7C302674553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,9 +255,6 @@
     <t>Viva</t>
   </si>
   <si>
-    <t>www.polki.pl</t>
-  </si>
-  <si>
     <t>Elle</t>
   </si>
   <si>
@@ -328,12 +325,15 @@
   </si>
   <si>
     <t>Strona</t>
+  </si>
+  <si>
+    <t>viva.pl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,10 +788,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -975,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -1111,36 +1111,36 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
@@ -1148,15 +1148,15 @@
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>72</v>
@@ -1164,15 +1164,15 @@
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>72</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
@@ -1196,31 +1196,31 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strony.xlsx
+++ b/strony.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\Desktop\TBR_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5456B254-4E06-4DFF-AEF3-7C302674553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1794884-71E8-401B-B4C5-17A7B4103CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,6 +255,9 @@
     <t>Viva</t>
   </si>
   <si>
+    <t>www.polki.pl</t>
+  </si>
+  <si>
     <t>Elle</t>
   </si>
   <si>
@@ -279,9 +282,6 @@
     <t>Murator</t>
   </si>
   <si>
-    <t xml:space="preserve">www.murator.pl </t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>Strona</t>
   </si>
   <si>
-    <t>viva.pl</t>
+    <t>www.murator.pl, www.muratordom.pl</t>
   </si>
 </sst>
 </file>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,36 +1111,36 @@
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">

--- a/strony.xlsx
+++ b/strony.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\Desktop\TBR_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1794884-71E8-401B-B4C5-17A7B4103CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C16392-3A9F-4A13-BA86-205682E22B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -327,7 +327,7 @@
     <t>Strona</t>
   </si>
   <si>
-    <t>www.murator.pl, www.muratordom.pl</t>
+    <t>www.murator.pl, www.muratorplus.pl</t>
   </si>
 </sst>
 </file>

--- a/strony.xlsx
+++ b/strony.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C16392-3A9F-4A13-BA86-205682E22B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8F082-9015-4505-BDEE-51169AE3E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <t>Viva</t>
   </si>
   <si>
-    <t>www.polki.pl</t>
-  </si>
-  <si>
     <t>Elle</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>www.murator.pl, www.muratorplus.pl</t>
+  </si>
+  <si>
+    <t>www.viva.pl</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -460,6 +460,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -777,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,10 +789,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -975,7 +976,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -1110,37 +1111,37 @@
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>76</v>
+      <c r="B41" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>72</v>
@@ -1148,15 +1149,15 @@
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>72</v>
@@ -1164,15 +1165,15 @@
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>72</v>
@@ -1180,7 +1181,7 @@
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
@@ -1188,7 +1189,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
@@ -1196,31 +1197,32 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{572C45EF-D2A1-412D-87B0-35826BBE4117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strony.xlsx
+++ b/strony.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konwe\TR_PBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8F082-9015-4505-BDEE-51169AE3E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A512DA1-F362-48C8-A7C5-B48731132369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>Dziennik Gazeta Prawna</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>www.viva.pl</t>
+  </si>
+  <si>
+    <t>Wysokie Obcasy Extra</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -444,12 +447,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,6 +475,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -776,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,241 +882,241 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>72</v>
@@ -1109,79 +1124,79 @@
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
@@ -1189,7 +1204,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>72</v>
@@ -1197,32 +1212,40 @@
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B41" r:id="rId2" xr:uid="{572C45EF-D2A1-412D-87B0-35826BBE4117}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{572C45EF-D2A1-412D-87B0-35826BBE4117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
